--- a/Data/Regression/news_index_dire_senti_lex_q.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.03139240878298091</v>
+        <v>-0.02826196892086825</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0231126634554312</v>
+        <v>-0.02438061753272573</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.03089707683469376</v>
+        <v>-0.02499945643840808</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02435745210682544</v>
+        <v>-0.02403913206016875</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02670459042884284</v>
+        <v>-0.02631031027359703</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.02755221143738503</v>
+        <v>-0.02339981409968447</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02138979081085034</v>
+        <v>-0.02107795888304043</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0267678503356235</v>
+        <v>-0.02490280286636562</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02951791874381285</v>
+        <v>-0.02530447089826424</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02448541575671291</v>
+        <v>-0.02803630549073349</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.02266841633529612</v>
+        <v>-0.02441188012467469</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02323814170339942</v>
+        <v>-0.02207135046289372</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02208003128563181</v>
+        <v>-0.02138287571095335</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0200287453485746</v>
+        <v>-0.02249903724869053</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0213599878287272</v>
+        <v>-0.0239450189757203</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.01487766360113212</v>
+        <v>-0.02174352801936217</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02202227764047503</v>
+        <v>-0.02307867019841524</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01931896327157953</v>
+        <v>-0.02069265548418663</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02019995924817094</v>
+        <v>-0.01933081804528547</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.01807695838059545</v>
+        <v>-0.02047056721927931</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.01451416671798256</v>
+        <v>-0.01704587637776508</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01626290155963497</v>
+        <v>-0.0201715176102177</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01998571440929315</v>
+        <v>-0.01995924075447292</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.01918766497695128</v>
+        <v>-0.0219444575692921</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.02307238427444645</v>
+        <v>-0.01933246837945055</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.01927639209834735</v>
+        <v>-0.02171629904755755</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.02423563910796725</v>
+        <v>-0.02192448728689967</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.01857722070393452</v>
+        <v>-0.01821222331461501</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01802390997163736</v>
+        <v>-0.02030692284948471</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02095202923411471</v>
+        <v>-0.02072767771212336</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.02162315953871694</v>
+        <v>-0.01794738798761369</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.01727907685933767</v>
+        <v>-0.01828808003715815</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0180884387101611</v>
+        <v>-0.01988799548322478</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0235169035743139</v>
+        <v>-0.02003370544430689</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.02552438290896059</v>
+        <v>-0.01858107291989381</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.02543210704890914</v>
+        <v>-0.01825511657770195</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.02354893866038624</v>
+        <v>-0.01996723618336083</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.01789407658470647</v>
+        <v>-0.02091616087920494</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.02555654215198492</v>
+        <v>-0.02243467534436397</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.02441929669886006</v>
+        <v>-0.02155606329144295</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0204893796315376</v>
+        <v>-0.03082211571896784</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.01975123456813301</v>
+        <v>-0.02230933624030783</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.02010748312431312</v>
+        <v>-0.0223569143758156</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01831646258833616</v>
+        <v>-0.01838594437050911</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0214376475316576</v>
+        <v>-0.02422830193202661</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0157165530219937</v>
+        <v>-0.02013553800711702</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.01700389195065901</v>
+        <v>-0.01855883377691713</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.01871700872246604</v>
+        <v>-0.01766240809213682</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.02331100240646828</v>
+        <v>-0.02459719904423159</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.01342164331409208</v>
+        <v>-0.01457845270567223</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.02194976013631382</v>
+        <v>-0.0211089765836642</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.01968011143473244</v>
+        <v>-0.01933631054695977</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.02253076382206359</v>
+        <v>-0.01915035147080334</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.02755704451028737</v>
+        <v>-0.02645568311684129</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.02581125574549001</v>
+        <v>-0.03177946859128868</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.02732664453167024</v>
+        <v>-0.02983140346423408</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.02551289771813615</v>
+        <v>-0.02737756556607301</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0291248276526323</v>
+        <v>-0.02267343011853555</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.02504393275196021</v>
+        <v>-0.02457588174538255</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.02374324726824474</v>
+        <v>-0.02753307746568784</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.02559158343738125</v>
+        <v>-0.02486476315649891</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.02902053023476323</v>
+        <v>-0.02945837091246329</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02424392144941047</v>
+        <v>-0.02503521495480292</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.02294375636944683</v>
+        <v>-0.03029643288977373</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.01995855591786148</v>
+        <v>-0.02308631289859756</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01940473613757738</v>
+        <v>-0.03188339801553428</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.03007662736074648</v>
+        <v>-0.03281738836353187</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.02625374592018625</v>
+        <v>-0.03237482139739632</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.02941648416607796</v>
+        <v>-0.03400962996410831</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.02815520522371878</v>
+        <v>-0.03114642725165899</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.02268478890770105</v>
+        <v>-0.03459240733198962</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.01684855663270466</v>
+        <v>-0.02143172471727046</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.01733453853046791</v>
+        <v>-0.02029102179839002</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02019034437272587</v>
+        <v>-0.02023348948884704</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.0169901326257321</v>
+        <v>-0.02082979749887235</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.02028480559694811</v>
+        <v>-0.02315831554863965</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.02452020688867381</v>
+        <v>-0.02910633803290104</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.02209907579726944</v>
+        <v>-0.0274418501315959</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.02195362669691107</v>
+        <v>-0.02335893022952247</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.02661975911270382</v>
+        <v>-0.02521879302082232</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02489677946962016</v>
+        <v>-0.02907365446673213</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.02505399249093084</v>
+        <v>-0.02858110646529869</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.02032001996410009</v>
+        <v>-0.02695607436896552</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.01721807286990364</v>
+        <v>-0.02120367050786776</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.01947324298934273</v>
+        <v>-0.02437848223125872</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.01797531393161662</v>
+        <v>-0.02420634604624692</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.01803880349136917</v>
+        <v>-0.02314999947508284</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.01735058535210856</v>
+        <v>-0.02058329614432478</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.01698066434988542</v>
+        <v>-0.02298038037102618</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.01616217018886311</v>
+        <v>-0.02023965102853399</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.01738381490110504</v>
+        <v>-0.02131699076352497</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.009350242527758656</v>
+        <v>-0.01097814090213123</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.008774367261680294</v>
+        <v>-0.009521513071943351</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.00706206293821857</v>
+        <v>-0.005689135296868831</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.00562081879021068</v>
+        <v>-0.006056482096913483</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.004554912477050164</v>
+        <v>-0.005493637287593822</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.01322673573106946</v>
+        <v>-0.004568636576300899</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.01073969742093163</v>
+        <v>-0.01622985365979976</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.00874018424555115</v>
+        <v>-0.01610049625536527</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.007670057246492425</v>
+        <v>-0.01452853652503183</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.007978422127379158</v>
+        <v>-0.01400796006466722</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.006275466017690072</v>
+        <v>-0.01340472618853723</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.008720989248222701</v>
+        <v>-0.0202432991263363</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.0135207286038176</v>
+        <v>-0.02229876943422133</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.01506819135969707</v>
+        <v>-0.02246750781211037</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.01428061850125342</v>
+        <v>-0.02467208862602949</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.01162469904086422</v>
+        <v>-0.02096083770297958</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.01060858280126377</v>
+        <v>-0.02092194959172864</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.01088807560776453</v>
+        <v>-0.0206877643940525</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.01502106968017586</v>
+        <v>-0.02185493245189613</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.02025124027440044</v>
+        <v>-0.02898272704783507</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.01666566945581041</v>
+        <v>-0.02739112869106909</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_senti_lex_q.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02826196892086825</v>
+        <v>-0.03004236407223401</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.02438061753272573</v>
+        <v>-0.02688056885336024</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02499945643840808</v>
+        <v>-0.02591053240304858</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02403913206016875</v>
+        <v>-0.02590385075839382</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02631031027359703</v>
+        <v>-0.02923597860464027</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.02339981409968447</v>
+        <v>-0.02478328668230359</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02107795888304043</v>
+        <v>-0.02165886987020562</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.02490280286636562</v>
+        <v>-0.02369946076007599</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02530447089826424</v>
+        <v>-0.02728834115643559</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02803630549073349</v>
+        <v>-0.02766079963697481</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.02441188012467469</v>
+        <v>-0.0267727920368037</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02207135046289372</v>
+        <v>-0.02461133082374807</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02138287571095335</v>
+        <v>-0.02292783194251224</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.02249903724869053</v>
+        <v>-0.02248927071957547</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0239450189757203</v>
+        <v>-0.02302291839803817</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.02174352801936217</v>
+        <v>-0.02355188901567934</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02307867019841524</v>
+        <v>-0.02535680982696291</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.02069265548418663</v>
+        <v>-0.02224815465439718</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01933081804528547</v>
+        <v>-0.02208279748038843</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.02047056721927931</v>
+        <v>-0.02308719559539319</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.01704587637776508</v>
+        <v>-0.01962807345612575</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0201715176102177</v>
+        <v>-0.02202142299309292</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01995924075447292</v>
+        <v>-0.02208913145801026</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0219444575692921</v>
+        <v>-0.0233859158092269</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.01933246837945055</v>
+        <v>-0.02113059779109859</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.02171629904755755</v>
+        <v>-0.02324000280561089</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.02192448728689967</v>
+        <v>-0.0212526516344226</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.01821222331461501</v>
+        <v>-0.02108715196320445</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.02030692284948471</v>
+        <v>-0.02334381351984096</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02072767771212336</v>
+        <v>-0.02045690038985885</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.01794738798761369</v>
+        <v>-0.01856004213486855</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.01828808003715815</v>
+        <v>-0.02152046809193205</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.01988799548322478</v>
+        <v>-0.0203681370456472</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.02003370544430689</v>
+        <v>-0.0225793880800226</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.01858107291989381</v>
+        <v>-0.02209152121795762</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.01825511657770195</v>
+        <v>-0.02045914576754806</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.01996723618336083</v>
+        <v>-0.0207510862956433</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.02091616087920494</v>
+        <v>-0.02297387495477413</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.02243467534436397</v>
+        <v>-0.02519026428111597</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.02155606329144295</v>
+        <v>-0.02518681724289557</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.03082211571896784</v>
+        <v>-0.0304628379076129</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.02230933624030783</v>
+        <v>-0.02421623668185671</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0223569143758156</v>
+        <v>-0.02237830941328979</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01838594437050911</v>
+        <v>-0.01914798792418105</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.02422830193202661</v>
+        <v>-0.02577916070600859</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.02013553800711702</v>
+        <v>-0.02157195051030799</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.01855883377691713</v>
+        <v>-0.01958697065938747</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.01766240809213682</v>
+        <v>-0.01921679769062782</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.02459719904423159</v>
+        <v>-0.0241237408989238</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.01457845270567223</v>
+        <v>-0.01551259484015592</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0211089765836642</v>
+        <v>-0.02189832078766973</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.01933631054695977</v>
+        <v>-0.02188271089224959</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.01915035147080334</v>
+        <v>-0.02298139978622775</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.02645568311684129</v>
+        <v>-0.02847702197736062</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.03177946859128868</v>
+        <v>-0.0316068876714701</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.02983140346423408</v>
+        <v>-0.03016987041726311</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.02737756556607301</v>
+        <v>-0.02625500049212329</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.02267343011853555</v>
+        <v>-0.0274456197928981</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.02457588174538255</v>
+        <v>-0.02661434293944908</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.02753307746568784</v>
+        <v>-0.03142442532498249</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.02486476315649891</v>
+        <v>-0.02631123764682591</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.02945837091246329</v>
+        <v>-0.03049351696195123</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02503521495480292</v>
+        <v>-0.02789343356687123</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.03029643288977373</v>
+        <v>-0.03101956793137184</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.02308631289859756</v>
+        <v>-0.02434231656927708</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.03188339801553428</v>
+        <v>-0.03321728700883653</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.03281738836353187</v>
+        <v>-0.03306370593184543</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.03237482139739632</v>
+        <v>-0.03704640631693106</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.03400962996410831</v>
+        <v>-0.03752612828350602</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.03114642725165899</v>
+        <v>-0.03534734590730129</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.03459240733198962</v>
+        <v>-0.03628993726295047</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.02143172471727046</v>
+        <v>-0.0230282866485075</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.02029102179839002</v>
+        <v>-0.02287074874609758</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02023348948884704</v>
+        <v>-0.01939729895859395</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.02082979749887235</v>
+        <v>-0.02088186143662822</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.02315831554863965</v>
+        <v>-0.02351291976423485</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.02910633803290104</v>
+        <v>-0.02941754912758698</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.0274418501315959</v>
+        <v>-0.02885065623951278</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.02335893022952247</v>
+        <v>-0.02447072953944438</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.02521879302082232</v>
+        <v>-0.02669947545035696</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02907365446673213</v>
+        <v>-0.03109115249838731</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.02858110646529869</v>
+        <v>-0.03278395007951038</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.02695607436896552</v>
+        <v>-0.03144690947306153</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.02120367050786776</v>
+        <v>-0.02262462990218295</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.02437848223125872</v>
+        <v>-0.02514643383338518</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.02420634604624692</v>
+        <v>-0.02422323534501584</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.02314999947508284</v>
+        <v>-0.02432567736663735</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.02058329614432478</v>
+        <v>-0.02221585948881601</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.02298038037102618</v>
+        <v>-0.02434528651249393</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.02023965102853399</v>
+        <v>-0.02251965540520371</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.02131699076352497</v>
+        <v>-0.02379487144811991</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.01097814090213123</v>
+        <v>-0.01121210720759167</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.009521513071943351</v>
+        <v>-0.00973614661516529</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.005689135296868831</v>
+        <v>-0.006439435353629054</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.006056482096913483</v>
+        <v>-0.00893171767402434</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.005493637287593822</v>
+        <v>-0.007060621952749849</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.004568636576300899</v>
+        <v>-0.004797042511227338</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.01622985365979976</v>
+        <v>-0.01648239725679491</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.01610049625536527</v>
+        <v>-0.01702504513828855</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.01452853652503183</v>
+        <v>-0.01511575780079158</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.01400796006466722</v>
+        <v>-0.01421453611751384</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.01340472618853723</v>
+        <v>-0.01459505748001359</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.0202432991263363</v>
+        <v>-0.0194952102117749</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.02229876943422133</v>
+        <v>-0.0236923728371104</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.02246750781211037</v>
+        <v>-0.02339055329595541</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.02467208862602949</v>
+        <v>-0.02473096739095534</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.02096083770297958</v>
+        <v>-0.02097390479137093</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.02092194959172864</v>
+        <v>-0.02326132098143947</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.0206877643940525</v>
+        <v>-0.02287544702448391</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.02185493245189613</v>
+        <v>-0.02434211946266628</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.02898272704783507</v>
+        <v>-0.03111901468002282</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.02739112869106909</v>
+        <v>-0.03004760892506892</v>
       </c>
     </row>
   </sheetData>
